--- a/OPM经济数值/强者之路.xlsx
+++ b/OPM经济数值/强者之路.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuhaihua\Desktop\OPM经济数值\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuhaihua\Desktop\OPM数值\OPM经济数值\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2CC60A-32BC-45AF-B10A-53B772497C35}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0BF845-96EB-4DE9-B287-53A06110D91F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="产出" sheetId="1" r:id="rId1"/>
@@ -1054,13 +1054,11 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1068,7 +1066,6 @@
       <sz val="10"/>
       <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1421,8 +1418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:AE102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75"/>
@@ -4394,7 +4391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
